--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/140.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/140.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2044279054421305</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.923160518903969</v>
+        <v>-1.931057919027694</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04306215432927604</v>
+        <v>0.04238177191891258</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.288841817888453</v>
+        <v>-0.2908085026669071</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1789741231873412</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.021478697297669</v>
+        <v>-2.032455338845121</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02259520019091789</v>
+        <v>0.02271638418246331</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2909588876202706</v>
+        <v>-0.2925985216263611</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1576523131273905</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.141944345182365</v>
+        <v>-2.154866500810952</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04645530609254785</v>
+        <v>0.04824386500391101</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2996140527031774</v>
+        <v>-0.3029721633122674</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1380442132020333</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.278393869542283</v>
+        <v>-2.29408792647146</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06469860698845205</v>
+        <v>0.06689451931717873</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3285828668748969</v>
+        <v>-0.3323030694105323</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.113973317072953</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.469035268868413</v>
+        <v>-2.488161168835271</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09748106677362506</v>
+        <v>0.09998504924953347</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3095263191923566</v>
+        <v>-0.3131939599967192</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.08662309557328592</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.397140310799932</v>
+        <v>-2.417778820588972</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2163625624796841</v>
+        <v>0.2224699436439551</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3719535954153398</v>
+        <v>-0.3759220061264296</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.05700460908369707</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.258398510937288</v>
+        <v>-2.279978021720918</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3083806333611139</v>
+        <v>0.3148968279908394</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3903604216974257</v>
+        <v>-0.3955932340552425</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.02230633292414961</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.978580294314636</v>
+        <v>-2.001276741887811</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4194289710594477</v>
+        <v>0.4288827824480815</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3384235910076215</v>
+        <v>-0.3433132920640747</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.022212064798905</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.620779449108459</v>
+        <v>-1.645349138382271</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4917130319441556</v>
+        <v>0.5036095037888796</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2558666317552801</v>
+        <v>-0.2601066114112789</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.08294716052502217</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.065146467728426</v>
+        <v>-1.088280929728875</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4727616077241606</v>
+        <v>0.4847354621177029</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2040378446242031</v>
+        <v>-0.2090399693836563</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1631165165365675</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4993471714913965</v>
+        <v>-0.5203937647218454</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3737747273048236</v>
+        <v>0.387042184306911</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1074644236991381</v>
+        <v>-0.1111306044554098</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2633526052771085</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06660688984326971</v>
+        <v>0.04516316353209365</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2345883427984973</v>
+        <v>0.2487347487513117</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01913780631164609</v>
+        <v>0.01506573218610173</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3806420538947854</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6566970061687476</v>
+        <v>0.6381865164722071</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.04568686887660923</v>
+        <v>-0.03262965879961274</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1596513745326084</v>
+        <v>0.1562231816151547</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5101597636376</v>
       </c>
       <c r="E15" t="n">
-        <v>1.193124514960967</v>
+        <v>1.174838872670427</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2641232037093688</v>
+        <v>-0.2518996810922811</v>
       </c>
       <c r="G15" t="n">
-        <v>0.310522523910477</v>
+        <v>0.3082287883596594</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6450312304584556</v>
       </c>
       <c r="E16" t="n">
-        <v>1.739202941634093</v>
+        <v>1.722355446713098</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6455680676997209</v>
+        <v>-0.6340599686471785</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4641312634587993</v>
+        <v>0.4629968060921633</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7803700636476399</v>
       </c>
       <c r="E17" t="n">
-        <v>2.335561044413842</v>
+        <v>2.3215475028373</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8676589029040249</v>
+        <v>-0.8542644217180285</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5986381938337633</v>
+        <v>0.5976760221418543</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9157799717510053</v>
       </c>
       <c r="E18" t="n">
-        <v>2.813526767597986</v>
+        <v>2.799641710253445</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.167771787990308</v>
+        <v>-1.156405313602584</v>
       </c>
       <c r="G18" t="n">
-        <v>0.75964499705872</v>
+        <v>0.7591047792650838</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.048761432130977</v>
       </c>
       <c r="E19" t="n">
-        <v>3.245928770009143</v>
+        <v>3.232623351756692</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.456386794360685</v>
+        <v>-1.444788172326506</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9423101536642163</v>
+        <v>0.9415202676470348</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.17291492649272</v>
       </c>
       <c r="E20" t="n">
-        <v>3.558295838722423</v>
+        <v>3.545060502778336</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.729947244865703</v>
+        <v>-1.719011484664796</v>
       </c>
       <c r="G20" t="n">
-        <v>1.11876864583526</v>
+        <v>1.119833020893532</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.282227905411821</v>
       </c>
       <c r="E21" t="n">
-        <v>3.922167563890598</v>
+        <v>3.910364535123692</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.995491301327586</v>
+        <v>-1.985060717766134</v>
       </c>
       <c r="G21" t="n">
-        <v>1.25235428586486</v>
+        <v>1.252752878993678</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.37301352334532</v>
       </c>
       <c r="E22" t="n">
-        <v>4.273425933601413</v>
+        <v>4.262548575324143</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.267306264339922</v>
+        <v>-2.258910257793151</v>
       </c>
       <c r="G22" t="n">
-        <v>1.407417233311728</v>
+        <v>1.407850867594728</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.444219951458507</v>
       </c>
       <c r="E23" t="n">
-        <v>4.391929276851926</v>
+        <v>4.379778756639384</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.558504095783116</v>
+        <v>-2.551449143407845</v>
       </c>
       <c r="G23" t="n">
-        <v>1.542496502538328</v>
+        <v>1.543530216586691</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.493543830854712</v>
       </c>
       <c r="E24" t="n">
-        <v>4.586076251644329</v>
+        <v>4.574649915284877</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.866647245369397</v>
+        <v>-2.863481861108307</v>
       </c>
       <c r="G24" t="n">
-        <v>1.620809101990398</v>
+        <v>1.622302731187397</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.520060003418071</v>
       </c>
       <c r="E25" t="n">
-        <v>4.611813979390868</v>
+        <v>4.599279466530416</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.086426824445793</v>
+        <v>-3.085768342756793</v>
       </c>
       <c r="G25" t="n">
-        <v>1.710012200152556</v>
+        <v>1.711403625983192</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.523896085936577</v>
       </c>
       <c r="E26" t="n">
-        <v>4.666992116842489</v>
+        <v>4.654222536239401</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.220580423182757</v>
+        <v>-3.222506226614665</v>
       </c>
       <c r="G26" t="n">
-        <v>1.826710923962706</v>
+        <v>1.829617879711705</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.50655417998856</v>
       </c>
       <c r="E27" t="n">
-        <v>4.659304963643855</v>
+        <v>4.646430259578222</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.353429468950494</v>
+        <v>-3.35658098275472</v>
       </c>
       <c r="G27" t="n">
-        <v>1.879681468700874</v>
+        <v>1.880941490203328</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.470483425379402</v>
       </c>
       <c r="E28" t="n">
-        <v>4.613439012916049</v>
+        <v>4.598718808063508</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.417406586221976</v>
+        <v>-3.42338986329852</v>
       </c>
       <c r="G28" t="n">
-        <v>1.860642441595424</v>
+        <v>1.862378438775515</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.419193381442529</v>
       </c>
       <c r="E29" t="n">
-        <v>4.520321525822165</v>
+        <v>4.504075570714623</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.472528511822098</v>
+        <v>-3.47984992297396</v>
       </c>
       <c r="G29" t="n">
-        <v>1.901004011020504</v>
+        <v>1.902278633003868</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.35757901510674</v>
       </c>
       <c r="E30" t="n">
-        <v>4.464690773462362</v>
+        <v>4.450236297362365</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.577370185085979</v>
+        <v>-3.587219669507249</v>
       </c>
       <c r="G30" t="n">
-        <v>1.922789388584953</v>
+        <v>1.925818988373589</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.290690238840086</v>
       </c>
       <c r="E31" t="n">
-        <v>4.277627952007048</v>
+        <v>4.261636045267325</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.522492817541085</v>
+        <v>-3.533478219377082</v>
       </c>
       <c r="G31" t="n">
-        <v>1.909235762157048</v>
+        <v>1.911509057034593</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.221633715545238</v>
       </c>
       <c r="E32" t="n">
-        <v>4.162161508785625</v>
+        <v>4.145860071850629</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.449680949271513</v>
+        <v>-3.460202055814602</v>
       </c>
       <c r="G32" t="n">
-        <v>1.822879757772162</v>
+        <v>1.823998154609798</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.153859614356916</v>
       </c>
       <c r="E33" t="n">
-        <v>3.936911129512594</v>
+        <v>3.920367324594507</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.454085184337739</v>
+        <v>-3.464943561989827</v>
       </c>
       <c r="G33" t="n">
-        <v>1.784201623795899</v>
+        <v>1.785168175632081</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.089956669983421</v>
       </c>
       <c r="E34" t="n">
-        <v>3.770632092631366</v>
+        <v>3.754082447520916</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.418070178079295</v>
+        <v>-3.428248903345064</v>
       </c>
       <c r="G34" t="n">
-        <v>1.687752306958562</v>
+        <v>1.688289604656016</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.030793483518989</v>
       </c>
       <c r="E35" t="n">
-        <v>3.671455405960211</v>
+        <v>3.655748208598215</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.329814651128137</v>
+        <v>-3.33988679288327</v>
       </c>
       <c r="G35" t="n">
-        <v>1.620737559633943</v>
+        <v>1.621964000030307</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9767016252080317</v>
       </c>
       <c r="E36" t="n">
-        <v>3.472015756838264</v>
+        <v>3.454258651956633</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.260654363133928</v>
+        <v>-3.267155227258699</v>
       </c>
       <c r="G36" t="n">
-        <v>1.528516542067877</v>
+        <v>1.528271253988605</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9254273052015289</v>
       </c>
       <c r="E37" t="n">
-        <v>3.296649380639221</v>
+        <v>3.279695302207589</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.184373420600358</v>
+        <v>-3.189774138488628</v>
       </c>
       <c r="G37" t="n">
-        <v>1.40465774241991</v>
+        <v>1.404040142077456</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8759271420062534</v>
       </c>
       <c r="E38" t="n">
-        <v>3.177294829351707</v>
+        <v>3.16004290110953</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.069036191634979</v>
+        <v>-3.073127246385706</v>
       </c>
       <c r="G38" t="n">
-        <v>1.345949208684472</v>
+        <v>1.345573976325108</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8254360658731644</v>
       </c>
       <c r="E39" t="n">
-        <v>2.85963070616461</v>
+        <v>2.839314136979616</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.941740438781014</v>
+        <v>-2.943723914112513</v>
       </c>
       <c r="G39" t="n">
-        <v>1.22111801700796</v>
+        <v>1.218022715055233</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7723388394508943</v>
       </c>
       <c r="E40" t="n">
-        <v>2.608988630542587</v>
+        <v>2.587920136590775</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.841814747439222</v>
+        <v>-2.842023534316222</v>
       </c>
       <c r="G40" t="n">
-        <v>1.194426877858058</v>
+        <v>1.192439752406331</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7156280686585365</v>
       </c>
       <c r="E41" t="n">
-        <v>2.433461649053543</v>
+        <v>2.413108578666276</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.75847739248229</v>
+        <v>-2.758278825941926</v>
       </c>
       <c r="G41" t="n">
-        <v>1.074943842338544</v>
+        <v>1.072267574187909</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6530764630625843</v>
       </c>
       <c r="E42" t="n">
-        <v>2.211332852598876</v>
+        <v>2.188938634980518</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.665467218923088</v>
+        <v>-2.663590327102225</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9825490790496602</v>
+        <v>0.9793603340191155</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5845083262099796</v>
       </c>
       <c r="E43" t="n">
-        <v>2.092045463523544</v>
+        <v>2.070950688706095</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.588445301983381</v>
+        <v>-2.587476560075063</v>
       </c>
       <c r="G43" t="n">
-        <v>0.877581841649961</v>
+        <v>0.8741857697905074</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5110337879512656</v>
       </c>
       <c r="E44" t="n">
-        <v>1.887889859067962</v>
+        <v>1.866364370063696</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.575355240824339</v>
+        <v>-2.574837653776112</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8028434399244356</v>
+        <v>0.7995130702290729</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4361228335434022</v>
       </c>
       <c r="E45" t="n">
-        <v>1.652703852536298</v>
+        <v>1.630619165113213</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.472708019841094</v>
+        <v>-2.470168996211004</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7003028024518269</v>
+        <v>0.6971622390082822</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3632861317689141</v>
       </c>
       <c r="E46" t="n">
-        <v>1.462770576534258</v>
+        <v>1.438958652219628</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.428567115932696</v>
+        <v>-2.425701771554288</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6766500233791058</v>
+        <v>0.6737343073415613</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2948801772413523</v>
       </c>
       <c r="E47" t="n">
-        <v>1.187557351590332</v>
+        <v>1.161943727931521</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.365871190860986</v>
+        <v>-2.363681848748669</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5686794670564076</v>
+        <v>0.5646949958163178</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2329200099779536</v>
       </c>
       <c r="E48" t="n">
-        <v>1.031243142929556</v>
+        <v>1.005715662108108</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.317443585757681</v>
+        <v>-2.313994222142909</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4846244984627938</v>
+        <v>0.4794471679324316</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1771619554393732</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8137266383940691</v>
+        <v>0.7861375696682583</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.256127406131879</v>
+        <v>-2.252926250692562</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4105986002056319</v>
+        <v>0.4050752382777243</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1275801282087447</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6920579108824654</v>
+        <v>0.6642483748949274</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.208045102402074</v>
+        <v>-2.204456304194621</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3355652687657429</v>
+        <v>0.3305616839581988</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.08323353819998466</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5333302427274171</v>
+        <v>0.5038255909063342</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.155979057456225</v>
+        <v>-2.153999962268998</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2754346481897591</v>
+        <v>0.2712924917558511</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.04281495532060881</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4165088748776303</v>
+        <v>0.3869195402672746</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.083366485751062</v>
+        <v>-2.079750676653927</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2452189529484036</v>
+        <v>0.2404986174704958</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.005323961133845625</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2857484279039381</v>
+        <v>0.2550217158307646</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.03309629995703</v>
+        <v>-2.029592184538849</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1461400894993393</v>
+        <v>0.1417920662846132</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.03098209770248572</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2456613475199489</v>
+        <v>0.2160033906493205</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.983459775034452</v>
+        <v>-1.980278330244363</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09087726925844501</v>
+        <v>0.08435523443635586</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.06631145573585802</v>
       </c>
       <c r="E55" t="n">
-        <v>0.06589730647108809</v>
+        <v>0.03324041082173321</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.973362082437728</v>
+        <v>-1.969544056680002</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04887314573109265</v>
+        <v>0.04220802619609444</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1012455079299636</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.05091384104206237</v>
+        <v>-0.08457232968178061</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.86589889282662</v>
+        <v>-1.861265430210122</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01866621077828258</v>
+        <v>0.01319103043737496</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.136128547424169</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2032771595688396</v>
+        <v>-0.2383752556261939</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.789222277260414</v>
+        <v>-1.783122196336597</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.03427659304615775</v>
+        <v>-0.03947436424979271</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1708188578243535</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2439000776021924</v>
+        <v>-0.2781732464881831</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.772865358497964</v>
+        <v>-1.768336289319965</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1133542576978638</v>
+        <v>-0.1202821858892256</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2055245145133316</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4666508545435871</v>
+        <v>-0.5051450224603949</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.729649395055157</v>
+        <v>-1.724948040202431</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1329656236549494</v>
+        <v>-0.1400512370401293</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2395727536870429</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4846941288510368</v>
+        <v>-0.5243169139421171</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.661019834541994</v>
+        <v>-1.655194242659268</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1743287860703929</v>
+        <v>-0.1818786947484818</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2726673342914863</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6175190838252739</v>
+        <v>-0.6602123500515351</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.668959576060355</v>
+        <v>-1.662714950375539</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2177082748993812</v>
+        <v>-0.2257049582932882</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.303801742299741</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.7765592022717767</v>
+        <v>-0.8228295863207642</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.609322451739098</v>
+        <v>-1.60222223787301</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.270836504831367</v>
+        <v>-0.2799238441491827</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3320357502026725</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.8469028592436668</v>
+        <v>-0.8951005067726538</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.643426255046544</v>
+        <v>-1.636537748153637</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3297728060689875</v>
+        <v>-0.3390090702920759</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3570800216080271</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.039678848878706</v>
+        <v>-1.091300309180874</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.609526858471826</v>
+        <v>-1.602699673598737</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3694408526508859</v>
+        <v>-0.3796524289987014</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3779025634984391</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.201011242827935</v>
+        <v>-1.256690176774738</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.560605027089748</v>
+        <v>-1.551894380179387</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.425203009338871</v>
+        <v>-0.4362774741084134</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3944507680545135</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.323268369720175</v>
+        <v>-1.380489114450978</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.591504024837649</v>
+        <v>-1.58355260293456</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4250730650587801</v>
+        <v>-0.435965023816959</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4058489318502478</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.459357992225684</v>
+        <v>-1.518057765672578</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.558882170342476</v>
+        <v>-1.550081000450478</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4741920029331305</v>
+        <v>-0.4856212593887638</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4120217754242963</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.603127467689373</v>
+        <v>-1.664122436735175</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.591673390416194</v>
+        <v>-1.582689714512833</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.484419639809946</v>
+        <v>-0.4962474893943973</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4127179793790173</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.701141956080165</v>
+        <v>-1.762729704650875</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.606501638827463</v>
+        <v>-1.597652287348465</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4903722558765807</v>
+        <v>-0.5022512071442139</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4081591649119236</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.821676226225132</v>
+        <v>-1.885185398083479</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.614939256744824</v>
+        <v>-1.60611180598719</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.568005932966378</v>
+        <v>-0.5813712131905563</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3986577654152989</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.894950199715476</v>
+        <v>-1.959693112210641</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.628441781489548</v>
+        <v>-1.619263919190096</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.607089960311913</v>
+        <v>-0.6213327294387274</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3848703358187696</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.978907345086999</v>
+        <v>-2.044251797395618</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.627554072250275</v>
+        <v>-1.618126541727278</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.616444488430365</v>
+        <v>-0.6302069017352705</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3677452962485738</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.965743551499366</v>
+        <v>-2.03051712500444</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.619681492944096</v>
+        <v>-1.609512257990917</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6633952548897161</v>
+        <v>-0.6784206097932575</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.347886386380878</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.0093887690809</v>
+        <v>-2.074145552032928</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.609964872899098</v>
+        <v>-1.599059773708101</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6619498072797165</v>
+        <v>-0.6768568982878943</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3252560966465375</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.911584527615199</v>
+        <v>-1.9743541851155</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.568130114950291</v>
+        <v>-1.554992602228295</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6810267956355295</v>
+        <v>-0.6969004384798889</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2993231477213336</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.89457058721184</v>
+        <v>-1.955709370994596</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.457578193602866</v>
+        <v>-1.442888649760234</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6846097536506195</v>
+        <v>-0.6998701762967972</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.270062241309217</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.748327790282152</v>
+        <v>-1.807985355276681</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.471149340607863</v>
+        <v>-1.456237869455412</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6458746777988117</v>
+        <v>-0.6606489044307168</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2373289551391633</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.605936600216281</v>
+        <v>-1.663141284418084</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.436451297727418</v>
+        <v>-1.420751400605876</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6539954652804458</v>
+        <v>-0.6691653649449872</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2016115486323738</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.443071155771598</v>
+        <v>-1.498913615104583</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.381189937534614</v>
+        <v>-1.366103260611255</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6289089189824526</v>
+        <v>-0.6431881893115396</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1637882008697985</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.255666683063012</v>
+        <v>-1.307911583899998</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.37003225002389</v>
+        <v>-1.354513398865621</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5642915706231063</v>
+        <v>-0.5769779284850121</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1236114529394326</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.101287038122689</v>
+        <v>-1.151759440577312</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.258112263615284</v>
+        <v>-1.242066335096197</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5091484743256666</v>
+        <v>-0.5209807040543907</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.08212331914430704</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.8917350959231093</v>
+        <v>-0.9389194700770057</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.227603098707656</v>
+        <v>-1.211482707735932</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4726793931109491</v>
+        <v>-0.4834472477814007</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.03966157309240012</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.6295411198058161</v>
+        <v>-0.674110547828895</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.141531803700497</v>
+        <v>-1.12556617782641</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4456349223230473</v>
+        <v>-0.4554274648687719</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.002970218012477781</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.3317862123863506</v>
+        <v>-0.3718002903657944</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.076632666059605</v>
+        <v>-1.061474446779791</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3922555641194252</v>
+        <v>-0.4014465668516955</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.04558371052792199</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.1144609741507726</v>
+        <v>-0.1503635567062175</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.01294828843035</v>
+        <v>-0.9992179961834441</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3565223471425258</v>
+        <v>-0.3651585316002507</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.08753338325616233</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1417044633991586</v>
+        <v>0.1099133762677126</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9591484363765458</v>
+        <v>-0.9456108704776403</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2692260717870947</v>
+        <v>-0.2762386827677291</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1290942342214186</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3822678270496395</v>
+        <v>0.3543882087537379</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8522583156411199</v>
+        <v>-0.8398741877340323</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2070820448937477</v>
+        <v>-0.2131952662503824</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1694528093046492</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5816855754502223</v>
+        <v>0.5563887822271382</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7146064416783386</v>
+        <v>-0.7039553908551598</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1780358481732101</v>
+        <v>-0.1831255758181178</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2061334868853188</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8501329375408775</v>
+        <v>0.8295681601804284</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5553852772685632</v>
+        <v>-0.5464118217018384</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1046596713165025</v>
+        <v>-0.1084937576032287</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2356793984087811</v>
       </c>
       <c r="E90" t="n">
-        <v>1.088957383915086</v>
+        <v>1.072417959141272</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4175173161883275</v>
+        <v>-0.4089585142794208</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05348352568206168</v>
+        <v>-0.0564415831142427</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2560428851551716</v>
       </c>
       <c r="E91" t="n">
-        <v>1.25943989925004</v>
+        <v>1.245585502915408</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2368816264291942</v>
+        <v>-0.2291375313550145</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03204125941897653</v>
+        <v>-0.03365607260752155</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2668099442725813</v>
       </c>
       <c r="E92" t="n">
-        <v>1.373425853707283</v>
+        <v>1.362176183166831</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.08563962483623486</v>
+        <v>-0.07912635030269116</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03340640438397616</v>
+        <v>-0.03496427569697574</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2695378355183783</v>
       </c>
       <c r="E93" t="n">
-        <v>1.469526219050893</v>
+        <v>1.46147113373335</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08210676037635646</v>
+        <v>0.08828276380090025</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03420651073779413</v>
+        <v>-0.03512196089079388</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2666656351895917</v>
       </c>
       <c r="E94" t="n">
-        <v>1.466387115655439</v>
+        <v>1.461123642287713</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2223312390753188</v>
+        <v>0.227524630134681</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05739499451760608</v>
+        <v>-0.05758042062515149</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2605555078677281</v>
       </c>
       <c r="E95" t="n">
-        <v>1.498778282552249</v>
+        <v>1.49680429753334</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3866041698796383</v>
+        <v>0.3922676964242732</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08371090130814447</v>
+        <v>-0.08268886764450838</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.2533755316627599</v>
       </c>
       <c r="E96" t="n">
-        <v>1.433940466931175</v>
+        <v>1.433223583318539</v>
       </c>
       <c r="F96" t="n">
-        <v>0.429866854861354</v>
+        <v>0.4354004371258979</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1193229342934986</v>
+        <v>-0.1187009538067714</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.246532926122762</v>
       </c>
       <c r="E97" t="n">
-        <v>1.360291261081468</v>
+        <v>1.36060079127674</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5071793213711514</v>
+        <v>0.5128749689737863</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.152226578070217</v>
+        <v>-0.152689413315035</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.2389744979323644</v>
       </c>
       <c r="E98" t="n">
-        <v>1.269553652375765</v>
+        <v>1.269655855742128</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5321695044951447</v>
+        <v>0.5376315444032341</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1926859707173879</v>
+        <v>-0.1928538762478424</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.2303551591848695</v>
       </c>
       <c r="E99" t="n">
-        <v>1.206667921052236</v>
+        <v>1.206921969420054</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5585000117665921</v>
+        <v>0.5633342309955909</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2145005492436548</v>
+        <v>-0.2152962754532</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.2176778755893941</v>
       </c>
       <c r="E100" t="n">
-        <v>1.107945309337354</v>
+        <v>1.108926461654444</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5319329767044175</v>
+        <v>0.5367087940097799</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2314633879638321</v>
+        <v>-0.2320065258536501</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.20342990583583</v>
       </c>
       <c r="E101" t="n">
-        <v>1.019310169882559</v>
+        <v>1.020443167201105</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5173105950739668</v>
+        <v>0.5221083131006928</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.224364634145834</v>
+        <v>-0.2245164791472885</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.1776511015797462</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9477473727547604</v>
+        <v>0.9500703092673961</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4598562426486187</v>
+        <v>0.4636202466269813</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2498848147268271</v>
+        <v>-0.2504848944921906</v>
       </c>
     </row>
   </sheetData>
